--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.7529937338359</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H2">
-        <v>12.7529937338359</v>
+        <v>86.868848</v>
       </c>
       <c r="I2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J2">
-        <v>0.3506863951215083</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.66305861323127</v>
+        <v>1.916802666666667</v>
       </c>
       <c r="N2">
-        <v>2.66305861323127</v>
+        <v>5.750408</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.3865473586068074</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.3865473586068074</v>
       </c>
       <c r="Q2">
-        <v>33.96196980737611</v>
+        <v>55.50347983222044</v>
       </c>
       <c r="R2">
-        <v>33.96196980737611</v>
+        <v>499.531318489984</v>
       </c>
       <c r="S2">
-        <v>0.3506863951215083</v>
+        <v>0.2122552494773884</v>
       </c>
       <c r="T2">
-        <v>0.3506863951215083</v>
+        <v>0.2122552494773885</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.6827628451534</v>
+        <v>28.95628266666667</v>
       </c>
       <c r="H3">
-        <v>12.6827628451534</v>
+        <v>86.868848</v>
       </c>
       <c r="I3">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301004</v>
       </c>
       <c r="J3">
-        <v>0.3487551609585917</v>
+        <v>0.5491054194301005</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.66305861323127</v>
+        <v>3.041975666666666</v>
       </c>
       <c r="N3">
-        <v>2.66305861323127</v>
+        <v>9.125926999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6134526413931926</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6134526413931926</v>
       </c>
       <c r="Q3">
-        <v>33.77494083435529</v>
+        <v>88.08430726912177</v>
       </c>
       <c r="R3">
-        <v>33.77494083435529</v>
+        <v>792.758765422096</v>
       </c>
       <c r="S3">
-        <v>0.3487551609585917</v>
+        <v>0.3368501699527119</v>
       </c>
       <c r="T3">
-        <v>0.3487551609585917</v>
+        <v>0.3368501699527121</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.350677823994581</v>
+        <v>12.691493</v>
       </c>
       <c r="H4">
-        <v>0.350677823994581</v>
+        <v>38.074479</v>
       </c>
       <c r="I4">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J4">
-        <v>0.009643064562905933</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>2.66305861323127</v>
+        <v>1.916802666666667</v>
       </c>
       <c r="N4">
-        <v>2.66305861323127</v>
+        <v>5.750408</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.3865473586068074</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.3865473586068074</v>
       </c>
       <c r="Q4">
-        <v>0.9338755996579682</v>
+        <v>24.32708762638133</v>
       </c>
       <c r="R4">
-        <v>0.9338755996579682</v>
+        <v>218.943788637432</v>
       </c>
       <c r="S4">
-        <v>0.009643064562905933</v>
+        <v>0.09303114090872466</v>
       </c>
       <c r="T4">
-        <v>0.009643064562905933</v>
+        <v>0.09303114090872468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,52 +717,300 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.5793725152376</v>
+        <v>12.691493</v>
       </c>
       <c r="H5">
-        <v>10.5793725152376</v>
+        <v>38.074479</v>
       </c>
       <c r="I5">
-        <v>0.290915379356994</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="J5">
-        <v>0.290915379356994</v>
+        <v>0.2406720388519202</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.66305861323127</v>
+        <v>3.041975666666666</v>
       </c>
       <c r="N5">
-        <v>2.66305861323127</v>
+        <v>9.125926999999999</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.6134526413931926</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.6134526413931926</v>
       </c>
       <c r="Q5">
-        <v>28.17348909928566</v>
+        <v>38.60721287967033</v>
       </c>
       <c r="R5">
-        <v>28.17348909928566</v>
+        <v>347.464915917033</v>
       </c>
       <c r="S5">
-        <v>0.290915379356994</v>
+        <v>0.1476408979431955</v>
       </c>
       <c r="T5">
-        <v>0.290915379356994</v>
+        <v>0.1476408979431955</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H6">
+        <v>1.466611</v>
+      </c>
+      <c r="I6">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J6">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>1.916802666666667</v>
+      </c>
+      <c r="N6">
+        <v>5.750408</v>
+      </c>
+      <c r="O6">
+        <v>0.3865473586068074</v>
+      </c>
+      <c r="P6">
+        <v>0.3865473586068074</v>
+      </c>
+      <c r="Q6">
+        <v>0.9370679585875555</v>
+      </c>
+      <c r="R6">
+        <v>8.433611627288</v>
+      </c>
+      <c r="S6">
+        <v>0.003583515735022549</v>
+      </c>
+      <c r="T6">
+        <v>0.00358351573502255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.4888703333333334</v>
+      </c>
+      <c r="H7">
+        <v>1.466611</v>
+      </c>
+      <c r="I7">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="J7">
+        <v>0.009270573592685367</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.041975666666666</v>
+      </c>
+      <c r="N7">
+        <v>9.125926999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.6134526413931926</v>
+      </c>
+      <c r="P7">
+        <v>0.6134526413931926</v>
+      </c>
+      <c r="Q7">
+        <v>1.487131658155222</v>
+      </c>
+      <c r="R7">
+        <v>13.384184923397</v>
+      </c>
+      <c r="S7">
+        <v>0.005687057857662817</v>
+      </c>
+      <c r="T7">
+        <v>0.005687057857662817</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H8">
+        <v>31.790737</v>
+      </c>
+      <c r="I8">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J8">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>1.916802666666667</v>
+      </c>
+      <c r="N8">
+        <v>5.750408</v>
+      </c>
+      <c r="O8">
+        <v>0.3865473586068074</v>
+      </c>
+      <c r="P8">
+        <v>0.3865473586068074</v>
+      </c>
+      <c r="Q8">
+        <v>20.31218981896622</v>
+      </c>
+      <c r="R8">
+        <v>182.809708370696</v>
+      </c>
+      <c r="S8">
+        <v>0.07767745248567176</v>
+      </c>
+      <c r="T8">
+        <v>0.07767745248567177</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10.59691233333333</v>
+      </c>
+      <c r="H9">
+        <v>31.790737</v>
+      </c>
+      <c r="I9">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="J9">
+        <v>0.200951968125294</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>3.041975666666666</v>
+      </c>
+      <c r="N9">
+        <v>9.125926999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.6134526413931926</v>
+      </c>
+      <c r="P9">
+        <v>0.6134526413931926</v>
+      </c>
+      <c r="Q9">
+        <v>32.23554945979988</v>
+      </c>
+      <c r="R9">
+        <v>290.1199451381989</v>
+      </c>
+      <c r="S9">
+        <v>0.1232745156396223</v>
+      </c>
+      <c r="T9">
+        <v>0.1232745156396223</v>
       </c>
     </row>
   </sheetData>
